--- a/Personal/xiemin/周计划 2018.02.05-2018.02.11.xlsx
+++ b/Personal/xiemin/周计划 2018.02.05-2018.02.11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>计划内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:30-15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,136 @@
   </si>
   <si>
     <t>掌握常用TFT LCD屏幕时序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：36-9:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cpp第四天视频4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:20-15:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高数》第二章导数第1节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:40-17:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:20-15:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:50-18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:20-21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Linux设备驱动》复习，18.5,18.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉GR6D00QT，MSGq,WindMl环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天问题归零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/2/7
+星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/2/8
+星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40-10:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为参加网络模块的总结会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-12:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假回家找房子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《ARM体系架构》复习2.2.2，学2.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-20:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:10-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:40-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +403,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,8 +466,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -341,81 +480,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
@@ -716,355 +931,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="52.25" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="8" customWidth="1"/>
+    <col min="5" max="6" width="16.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="8" customWidth="1"/>
+    <col min="8" max="8" width="52.25" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="24">
-        <v>43138</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:9" ht="18" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="25">
+      <c r="I2" s="27">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21"/>
-      <c r="C3" t="s">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="12" t="s">
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="22" t="s">
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="27">
+      <c r="A8" s="30"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="30"/>
+      <c r="B9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="30"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="30"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="30"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="30"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="30"/>
+      <c r="B16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="24"/>
-      <c r="B6" s="22"/>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22"/>
-      <c r="C7" t="s">
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="30"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="30"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="5">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="30"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="5">
+        <v>7</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="33"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="30"/>
+      <c r="B20" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6">
+        <v>8</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="30"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="6">
+        <v>9</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="30"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="5"/>
+      <c r="D22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H2:H9"/>
+  <mergeCells count="11">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="I2:I9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="I13:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xiemin/周计划 2018.02.05-2018.02.11.xlsx
+++ b/Personal/xiemin/周计划 2018.02.05-2018.02.11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
   <si>
     <t>计划内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《ARM体系架构》2.2.2，2.2.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +129,6 @@
   </si>
   <si>
     <t>11:15-11：54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,158 +169,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成9节，10节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：50-21:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:50-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握常用TFT LCD屏幕时序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：36-9:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cpp第四天视频4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:20-15:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高数》第二章导数第1节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:40-17:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:20-15:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:50-18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:20-21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Linux设备驱动》复习，18.5,18.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉GR6D00QT，MSGq,WindMl环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天问题归零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/2/7
+星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/2/8
+星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40-10:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-12:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假回家找房子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《ARM体系架构》复习2.2.2，学2.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-20:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:10-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:40-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:40-9:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉GR6D00QT，MSGq,WindMl环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Linux设备驱动》复习，18.5,18.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《ARM体系架构》3.1.1,3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高数》第二章导数第2节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天问题归零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《人间失格》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/2/9
+星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cpp第五天视频1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成50%，剩余单词下班在班车上背诵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:20-11:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:20-11:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：15-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10-16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:20-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40-18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:20-21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.改为GR6030/GR6031控制板软件重构讨论（地点：29所）
 2.讨论时间改到明天，地点29所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成9节，10节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7：50-21:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:50-18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌握常用TFT LCD屏幕时序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8：36-9:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cpp第四天视频4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>∞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:20-15:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:30-16:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《高数》第二章导数第1节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:40-17:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>∞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:20-15:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:50-18:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:20-21:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Linux设备驱动》复习，18.5,18.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉GR6D00QT，MSGq,WindMl环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白天问题归零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:30-23:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/2/7
-星期三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/2/8
-星期四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:40-10:38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>改为参加网络模块的总结会议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:00-12:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假回家找房子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《ARM体系架构》复习2.2.2，学2.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:30-20:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:10-17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:40-23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:30-22:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超额完成</t>
+    <t>时间改为2.10（星期六）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:50-16:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮同事看DDR问题，顺便熟悉DDR的相关配置和工作原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:20-17:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有搞懂的不少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:50-22:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成第二节，重新理解导数的概念，基本入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无重要疑问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,8 +520,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +602,35 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -533,7 +695,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -541,8 +703,11 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,9 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -606,32 +768,67 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -933,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -952,12 +1149,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -979,10 +1176,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4">
@@ -997,16 +1194,16 @@
       <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="27">
+      <c r="G2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="35">
         <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -1019,193 +1216,197 @@
       <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="28"/>
+      <c r="G3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="28"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="25" t="s">
-        <v>35</v>
+      <c r="A5" s="42"/>
+      <c r="B5" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="30"/>
-      <c r="B6" s="25"/>
+      <c r="G5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="28"/>
+      <c r="F6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>30</v>
+      <c r="F7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="27">
-      <c r="A8" s="30"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="30"/>
-      <c r="B9" s="26" t="s">
+      <c r="E8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="30"/>
-      <c r="B10" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="6">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="30"/>
-      <c r="B11" s="26"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" s="30" customFormat="1">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
+      <c r="A13" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4">
@@ -1218,302 +1419,458 @@
         <v>20</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="I13" s="32">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="30"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:9" ht="14.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="30"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="30"/>
-      <c r="B16" s="25" t="s">
-        <v>35</v>
+      <c r="A16" s="42"/>
+      <c r="B16" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="5">
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>30</v>
+      <c r="E16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="30"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="5">
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="30"/>
-      <c r="B18" s="25"/>
+    <row r="18" spans="1:9" ht="14.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5">
         <v>6</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="30"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="5">
         <v>7</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>66</v>
+      <c r="E19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="30"/>
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="1:9" ht="14.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="6">
         <v>8</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>55</v>
+      <c r="E20" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="30"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:9" ht="14.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="6">
         <v>9</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>56</v>
+      <c r="D21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="30"/>
-      <c r="B22" s="26"/>
+    <row r="22" spans="1:9" ht="14.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="6">
         <v>10</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>60</v>
+      <c r="D22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" s="30" customFormat="1">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="23">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="42"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="23">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="24">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="24">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="24">
+        <v>6</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="24">
+        <v>7</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="42"/>
+      <c r="B31" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="25">
+        <v>8</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="25">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="42"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="25">
+        <v>10</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="2:7">
+    <row r="34" spans="1:7" s="30" customFormat="1">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="1:7">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="1:7">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="1:7">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="1:7">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A24:A33"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="I13:I22"/>
+    <mergeCell ref="I2:I11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="I13:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
